--- a/Testing/BlackBoxTesting.xlsx
+++ b/Testing/BlackBoxTesting.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
   <si>
     <t>Test</t>
   </si>
@@ -56,12 +59,6 @@
     <t>Add A Contributer</t>
   </si>
   <si>
-    <t>Test Details</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
     <t>Delete A Contributer</t>
   </si>
   <si>
@@ -87,6 +84,183 @@
   </si>
   <si>
     <t>Black Box Testing</t>
+  </si>
+  <si>
+    <t>Test Details / Input</t>
+  </si>
+  <si>
+    <t>Expected / Output</t>
+  </si>
+  <si>
+    <t>The user will be logged into the app and can see an empty bookshelf</t>
+  </si>
+  <si>
+    <t>The cookbook will appear on the shelf. The image selected from the gallery will appear in a square with the title test cookbook as an overlay on the image</t>
+  </si>
+  <si>
+    <t>Edit the cookbooks title "test cookbook" to "test 2 cookbook" and change the image to another image from the gallery.</t>
+  </si>
+  <si>
+    <t>The cookbook on the shelf will change image to the one selected. The title will change to "test 2 cookbook"</t>
+  </si>
+  <si>
+    <t>The recipe should appear on the recipe shelf with the image selected in a square shape and the title test overlayed on the recipe. When the recipe is clicked the recipe view should contain all the information entered.</t>
+  </si>
+  <si>
+    <t>Edit the recipe title test to "test edit". Edit ingredient 100g test to 50kg test1. Edit method "test step" to "test 1 step". Add ingredient "100g test 2" and add method "test 2 step". Edit serves amount to 3. Save this.</t>
+  </si>
+  <si>
+    <t>On the recipe view these changes should be visible</t>
+  </si>
+  <si>
+    <t>Edit A Recipe 2</t>
+  </si>
+  <si>
+    <t>Delete ingredient 100g test 2 and method test 2 step. Save this.</t>
+  </si>
+  <si>
+    <t>On the recipe view these edits should no longer be visible</t>
+  </si>
+  <si>
+    <t>Delete the recipe.</t>
+  </si>
+  <si>
+    <t>The recipe will no longer appear on the shelf.</t>
+  </si>
+  <si>
+    <t>The contributer will then appear on the contributer list.</t>
+  </si>
+  <si>
+    <t>The contributer will no longer appear on the contributer list.</t>
+  </si>
+  <si>
+    <t>Font visibly increases in page</t>
+  </si>
+  <si>
+    <t>Increase the font on the recipe view</t>
+  </si>
+  <si>
+    <t>Decrease the font on the recipe view</t>
+  </si>
+  <si>
+    <t>Font visibly decreases in page</t>
+  </si>
+  <si>
+    <t>Switch the screen off in the recipe view</t>
+  </si>
+  <si>
+    <t>Wait for five minutes and make sure the sreen doesn't sleep</t>
+  </si>
+  <si>
+    <t>Share the recipe to twitter from recipe view</t>
+  </si>
+  <si>
+    <t>On twitter a message is displayed about viewing the recipe on Recipes For Life and an image of the recipe</t>
+  </si>
+  <si>
+    <t>Place the recipe view on full screen</t>
+  </si>
+  <si>
+    <t>The task bar at the top showing battery etc disappears</t>
+  </si>
+  <si>
+    <t>Add a contributer  user1@aol.com to cookbook - "test 2 cookbook"</t>
+  </si>
+  <si>
+    <t>Delete contributer user1@aol.com from test 2 cookbook</t>
+  </si>
+  <si>
+    <t>Clone the recipe pepperoni pizza with name pepperoni pizza test to the cookbook test 2 cookbook</t>
+  </si>
+  <si>
+    <t>The recipe will appear on the shelf of test 2 cookbook.</t>
+  </si>
+  <si>
+    <t>Log off from the app.</t>
+  </si>
+  <si>
+    <t>Once logged off the user should see the front sign up/sign in page</t>
+  </si>
+  <si>
+    <t>Delete test 2 cookbook</t>
+  </si>
+  <si>
+    <t>Test 2 cookbook will no longer appear on shelf</t>
+  </si>
+  <si>
+    <t>Sync Application</t>
+  </si>
+  <si>
+    <t>Install app and make sure all data is downloaded</t>
+  </si>
+  <si>
+    <t>The tester should be able to sign as lynn@aol.com with password Lynn-Cats22. The tester will be logged in and see Lynn's book shelf</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Create an account with  the details testaccount1@hotmail.co.uk . The user is called tester from  Surrey in the UK and is interested in italian cooking.  The tester can pick the password.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add a cookbook with the name "test cookbook". The description "this is a test" and select  any picture from the gallery. The cookbook should be public </t>
+  </si>
+  <si>
+    <t>Add a recipe called test into test 2 cookbook. It should have the description "test description" and an image from the gallery. It serves 2 and has a prep time 00:15 and cook time of 00:30. It should have a method step called "test step" and ingredient 100g test. It should have the category indian and difficulty medium. It should be vegan and have a tip.</t>
+  </si>
+  <si>
+    <t>Review recipe</t>
+  </si>
+  <si>
+    <t>Add review to recipe test edit saying "best recipe ever"</t>
+  </si>
+  <si>
+    <t>The review should appear under the textbox where the user enters reviews</t>
+  </si>
+  <si>
+    <t>Search for recipe</t>
+  </si>
+  <si>
+    <t>Search for recipe  pepperoni pizza</t>
+  </si>
+  <si>
+    <t>Results should appear that contain the word pepperoni pizza. The user should click the first result in recipes and it should show the recipe.</t>
+  </si>
+  <si>
+    <t>Search for cookbook</t>
+  </si>
+  <si>
+    <t>Search for cookbook containing the word cupcake</t>
+  </si>
+  <si>
+    <t>The results will contain two cookbooks. The user should click the first result and it should show the recipes in the cookbook. The only action the user should have is to click on the recipes.</t>
+  </si>
+  <si>
+    <t>Explore recipes by medium difficulty</t>
+  </si>
+  <si>
+    <t>A list of results should be displayed. When clicked on it should display the recipe</t>
+  </si>
+  <si>
+    <t>Explore recipes by  indian cuisine</t>
+  </si>
+  <si>
+    <t>Explore recipes by cusine</t>
+  </si>
+  <si>
+    <t>Explore  recipes by difficulty</t>
+  </si>
+  <si>
+    <t>Explore recipes by dietary requirements</t>
+  </si>
+  <si>
+    <t>Explore recipes with nut free dietary requirements</t>
+  </si>
+  <si>
+    <t>Explore cookbooks</t>
+  </si>
+  <si>
+    <t>A list of cookbooks should be displayed. When clicked on should display the recipes in the cookbook</t>
   </si>
 </sst>
 </file>
@@ -130,18 +304,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -416,15 +634,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" customWidth="1"/>
     <col min="3" max="3" width="25.5546875" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" customWidth="1"/>
@@ -432,7 +650,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -443,93 +661,360 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>19</v>
+      <c r="B28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/BlackBoxTesting.xlsx
+++ b/Testing/BlackBoxTesting.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="142">
   <si>
     <t>Test</t>
   </si>
@@ -261,6 +261,198 @@
   </si>
   <si>
     <t>A list of cookbooks should be displayed. When clicked on should display the recipes in the cookbook</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Detailed</t>
+  </si>
+  <si>
+    <t>Enter nothing it to password box</t>
+  </si>
+  <si>
+    <t>An error should appear asking the user to enter a password between 6-12 chars containing one digit, one special character and one uppercase character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter a password with 5 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter a password with 6 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter a password with 7 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter a password with 11 characters </t>
+  </si>
+  <si>
+    <t>Enter a password with 12 characters</t>
+  </si>
+  <si>
+    <t>Enter a password with 8 characters containing one digit , one special character and one upper case letter</t>
+  </si>
+  <si>
+    <t>1. Enter account email</t>
+  </si>
+  <si>
+    <t>Enter an email abcaol.co.uk</t>
+  </si>
+  <si>
+    <t>1. Enter account password - Create account</t>
+  </si>
+  <si>
+    <t>2. Enter account password - Create account</t>
+  </si>
+  <si>
+    <t>3. Enter account password  - Create account</t>
+  </si>
+  <si>
+    <t>4. Enter account password - Create account</t>
+  </si>
+  <si>
+    <t>5. Enter acount password - Create account</t>
+  </si>
+  <si>
+    <t>6. Enter account password - Create account</t>
+  </si>
+  <si>
+    <t>7. Enter account password - Create account</t>
+  </si>
+  <si>
+    <t>2. Enter account email</t>
+  </si>
+  <si>
+    <t>Enter an email lynn@aol.com</t>
+  </si>
+  <si>
+    <t>An error should appear asking the user to enter a valid email</t>
+  </si>
+  <si>
+    <t>An error should appear telling the user an account already exists with that email</t>
+  </si>
+  <si>
+    <t>3. Enter account email</t>
+  </si>
+  <si>
+    <t>Leave the email edit text box empty</t>
+  </si>
+  <si>
+    <t>4. Enter account email</t>
+  </si>
+  <si>
+    <t>Enter email testing1@hotmail.co.uk</t>
+  </si>
+  <si>
+    <t>The user should be able to move onto the next dialog assuming password and name is filled out</t>
+  </si>
+  <si>
+    <t>The user should be able to move onto the next dialog assuming email and name is filled out</t>
+  </si>
+  <si>
+    <t>1. Enter cookbook name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter nothing into cookbook name </t>
+  </si>
+  <si>
+    <t>An error should appear telling the user too fill out the cookbook name</t>
+  </si>
+  <si>
+    <t>2. Enter cookbook name</t>
+  </si>
+  <si>
+    <t>Enter testing1 into cookbook name</t>
+  </si>
+  <si>
+    <t>Providing other details are filled out on the dialog box the user should be able to add a cookbook</t>
+  </si>
+  <si>
+    <t>1. Enter recipe name</t>
+  </si>
+  <si>
+    <t>Enter nothing into recipe name</t>
+  </si>
+  <si>
+    <t>An error should appear telling the user too fill out the recipe name</t>
+  </si>
+  <si>
+    <t>2. Enter recipe name</t>
+  </si>
+  <si>
+    <t>Enter testingrecipe into recipe name</t>
+  </si>
+  <si>
+    <t>Providing other details are filled out on the dialog box the user should be able to progress with adding a recipe</t>
+  </si>
+  <si>
+    <t>Enter recipe ingredients</t>
+  </si>
+  <si>
+    <t>Enter nothing into recipe ingredients</t>
+  </si>
+  <si>
+    <t>An error should appear telling the user to fill out ingredients</t>
+  </si>
+  <si>
+    <t>Enter recipe method</t>
+  </si>
+  <si>
+    <t>Enter nothing into recipe method</t>
+  </si>
+  <si>
+    <t>Enter recipe serves</t>
+  </si>
+  <si>
+    <t>Enter nothing into serves</t>
+  </si>
+  <si>
+    <t>An error should appear telling the user to fill out the method</t>
+  </si>
+  <si>
+    <t>An error should appear telling the user to fill out the serves value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter prep/cooking time </t>
+  </si>
+  <si>
+    <t>Enter nothing into prep/cooking time</t>
+  </si>
+  <si>
+    <t>An error should appear telling the user to fill out the prep/cooking time</t>
+  </si>
+  <si>
+    <t>Enter recipe description</t>
+  </si>
+  <si>
+    <t>Enter nothing into recipe description</t>
+  </si>
+  <si>
+    <t>An error should appear telling the user to fill out description</t>
+  </si>
+  <si>
+    <t>Enter cookbook description</t>
+  </si>
+  <si>
+    <t>Enter nothing into cookbook description</t>
+  </si>
+  <si>
+    <t>An error should appear telling the user to fill out cookbook</t>
+  </si>
+  <si>
+    <t>Enter nothing into new name box</t>
+  </si>
+  <si>
+    <t>An error should appear telling the user to fill out the new name box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log in with invalid credentials </t>
+  </si>
+  <si>
+    <t>Enter username account and password abc1</t>
+  </si>
+  <si>
+    <t>The user should not be allowed access</t>
   </si>
 </sst>
 </file>
@@ -304,12 +496,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -325,6 +514,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,12 +847,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -670,356 +868,627 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="D5" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="D6" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="D7" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="D8" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="D10" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="D11" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="D12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="D13" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="D16" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="D18" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="D19" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="D22" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="D25" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="D26" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="D27" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="D28" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>50</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Testing/BlackBoxTesting.xlsx
+++ b/Testing/BlackBoxTesting.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="142">
   <si>
     <t>Test</t>
   </si>
@@ -496,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -515,14 +515,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -847,12 +850,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -869,12 +872,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -1224,264 +1227,330 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>81</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>88</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
         <v>141</v>
+      </c>
+      <c r="D53" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
